--- a/assets/2023-04-13-Datenaufbereitung-Digi-Kunst.xlsx
+++ b/assets/2023-04-13-Datenaufbereitung-Digi-Kunst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rene.Bialik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{848F7553-9440-4E1F-BC7E-82E90CF82F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54EC7241-4449-4834-A125-A2A26664E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{580D1DA7-909B-4984-BA95-50A6B6BBC46E}"/>
   </bookViews>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Institution:</t>
   </si>
@@ -524,22 +524,28 @@
     <t>Klavier</t>
   </si>
   <si>
+    <t>Radio Corporation of America</t>
+  </si>
+  <si>
+    <t>Aufnahmegesellschaft</t>
+  </si>
+  <si>
     <t>Siegfried Ochs</t>
   </si>
   <si>
     <t>Komponist</t>
   </si>
   <si>
+    <t>Komposition</t>
+  </si>
+  <si>
+    <t>Um 1900</t>
+  </si>
+  <si>
     <t>Georg Friedrich Händel</t>
   </si>
   <si>
     <t>Zugeschriebene Person</t>
-  </si>
-  <si>
-    <t>Radio Corporation of America</t>
-  </si>
-  <si>
-    <t>Aufnahmegesellschaft</t>
   </si>
   <si>
     <t>Karsten Lehl</t>
@@ -1146,7 +1152,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1370,7 +1376,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1702,24 +1708,30 @@
       <c r="G19" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="F20" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="F21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>57</v>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21" s="20">
         <v>41683</v>
@@ -1730,34 +1742,34 @@
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
